--- a/data/outputs/bioecon_table_manuscript.xlsx
+++ b/data/outputs/bioecon_table_manuscript.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>174.03</t>
+          <t>173.43</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>58.74</t>
+          <t>58.14</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>171.26</t>
+          <t>170.66</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>70.71</t>
+          <t>70.11</t>
         </is>
       </c>
     </row>
